--- a/natmiOut/OldD2/LR-pairs_lrc2p/Nppa-Npr1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Nppa-Npr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Nppa</t>
   </si>
   <si>
     <t>Npr1</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
+    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.444374442140331</v>
+        <v>0.1654395</v>
       </c>
       <c r="H2">
-        <v>0.444374442140331</v>
+        <v>0.330879</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.1548351743827374</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1155465552264825</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>53.736343957133</v>
+        <v>53.750927</v>
       </c>
       <c r="N2">
-        <v>53.736343957133</v>
+        <v>107.501854</v>
       </c>
       <c r="O2">
-        <v>0.6291462888179089</v>
+        <v>0.6206622533318568</v>
       </c>
       <c r="P2">
-        <v>0.6291462888179089</v>
+        <v>0.522688180082781</v>
       </c>
       <c r="Q2">
-        <v>23.87905786861192</v>
+        <v>8.8925264874165</v>
       </c>
       <c r="R2">
-        <v>23.87905786861192</v>
+        <v>35.570105949666</v>
       </c>
       <c r="S2">
-        <v>0.6291462888179089</v>
+        <v>0.09610034822742081</v>
       </c>
       <c r="T2">
-        <v>0.6291462888179089</v>
+        <v>0.06039481866616466</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.444374442140331</v>
+        <v>0.1654395</v>
       </c>
       <c r="H3">
-        <v>0.444374442140331</v>
+        <v>0.330879</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.1548351743827374</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.1155465552264825</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.84825625138848</v>
+        <v>1.974798</v>
       </c>
       <c r="N3">
-        <v>1.84825625138848</v>
+        <v>5.924393999999999</v>
       </c>
       <c r="O3">
-        <v>0.02163942456288391</v>
+        <v>0.02280300350085579</v>
       </c>
       <c r="P3">
-        <v>0.02163942456288391</v>
+        <v>0.02880518430829431</v>
       </c>
       <c r="Q3">
-        <v>0.8213178406431352</v>
+        <v>0.3267095937209999</v>
       </c>
       <c r="R3">
-        <v>0.8213178406431352</v>
+        <v>1.960257562326</v>
       </c>
       <c r="S3">
-        <v>0.02163942456288391</v>
+        <v>0.003530707023505179</v>
       </c>
       <c r="T3">
-        <v>0.02163942456288391</v>
+        <v>0.003328339819487335</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.444374442140331</v>
+        <v>0.1654395</v>
       </c>
       <c r="H4">
-        <v>0.444374442140331</v>
+        <v>0.330879</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.1548351743827374</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.1155465552264825</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>29.4443867213242</v>
+        <v>0.126509</v>
       </c>
       <c r="N4">
-        <v>29.4443867213242</v>
+        <v>0.3795269999999999</v>
       </c>
       <c r="O4">
-        <v>0.344735522889652</v>
+        <v>0.001460800127349615</v>
       </c>
       <c r="P4">
-        <v>0.344735522889652</v>
+        <v>0.001845310285739608</v>
       </c>
       <c r="Q4">
-        <v>13.08433292345261</v>
+        <v>0.0209295857055</v>
       </c>
       <c r="R4">
-        <v>13.08433292345261</v>
+        <v>0.125577514233</v>
       </c>
       <c r="S4">
-        <v>0.344735522889652</v>
+        <v>0.0002261832424565027</v>
       </c>
       <c r="T4">
-        <v>0.344735522889652</v>
+        <v>0.0002132192468412077</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +714,1673 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>0.1654395</v>
+      </c>
+      <c r="H5">
+        <v>0.330879</v>
+      </c>
+      <c r="I5">
+        <v>0.1548351743827374</v>
+      </c>
+      <c r="J5">
+        <v>0.1155465552264825</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.172684</v>
+      </c>
+      <c r="N5">
+        <v>0.518052</v>
+      </c>
+      <c r="O5">
+        <v>0.001993983109432854</v>
+      </c>
+      <c r="P5">
+        <v>0.002518837089714237</v>
+      </c>
+      <c r="Q5">
+        <v>0.02856875461799999</v>
+      </c>
+      <c r="R5">
+        <v>0.171412527708</v>
+      </c>
+      <c r="S5">
+        <v>0.0003087387224652689</v>
+      </c>
+      <c r="T5">
+        <v>0.0002910429488931784</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <v>0.1654395</v>
+      </c>
+      <c r="H6">
+        <v>0.330879</v>
+      </c>
+      <c r="I6">
+        <v>0.1548351743827374</v>
+      </c>
+      <c r="J6">
+        <v>0.1155465552264825</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>30.192033</v>
+      </c>
+      <c r="N6">
+        <v>90.576099</v>
+      </c>
+      <c r="O6">
+        <v>0.3486275731477111</v>
+      </c>
+      <c r="P6">
+        <v>0.4403929289006289</v>
+      </c>
+      <c r="Q6">
+        <v>4.9949548435035</v>
+      </c>
+      <c r="R6">
+        <v>29.969729061021</v>
+      </c>
+      <c r="S6">
+        <v>0.0539798110829564</v>
+      </c>
+      <c r="T6">
+        <v>0.05088588588056889</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.1654395</v>
+      </c>
+      <c r="H7">
+        <v>0.330879</v>
+      </c>
+      <c r="I7">
+        <v>0.1548351743827374</v>
+      </c>
+      <c r="J7">
+        <v>0.1155465552264825</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.385588</v>
+      </c>
+      <c r="N7">
+        <v>0.771176</v>
+      </c>
+      <c r="O7">
+        <v>0.004452386782793978</v>
+      </c>
+      <c r="P7">
+        <v>0.003749559332842005</v>
+      </c>
+      <c r="Q7">
+        <v>0.06379148592599999</v>
+      </c>
+      <c r="R7">
+        <v>0.255165943704</v>
+      </c>
+      <c r="S7">
+        <v>0.0006893860839333009</v>
+      </c>
+      <c r="T7">
+        <v>0.0004332486645272015</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.07699833333333334</v>
+      </c>
+      <c r="H8">
+        <v>0.230995</v>
+      </c>
+      <c r="I8">
+        <v>0.07206290135576336</v>
+      </c>
+      <c r="J8">
+        <v>0.08066597313380819</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>53.750927</v>
+      </c>
+      <c r="N8">
+        <v>107.501854</v>
+      </c>
+      <c r="O8">
+        <v>0.6206622533318568</v>
+      </c>
+      <c r="P8">
+        <v>0.522688180082781</v>
+      </c>
+      <c r="Q8">
+        <v>4.138731794121667</v>
+      </c>
+      <c r="R8">
+        <v>24.83239076473</v>
+      </c>
+      <c r="S8">
+        <v>0.04472672273709941</v>
+      </c>
+      <c r="T8">
+        <v>0.04216315069191671</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.07699833333333334</v>
+      </c>
+      <c r="H9">
+        <v>0.230995</v>
+      </c>
+      <c r="I9">
+        <v>0.07206290135576336</v>
+      </c>
+      <c r="J9">
+        <v>0.08066597313380819</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.974798</v>
+      </c>
+      <c r="N9">
+        <v>5.924393999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.02280300350085579</v>
+      </c>
+      <c r="P9">
+        <v>0.02880518430829431</v>
+      </c>
+      <c r="Q9">
+        <v>0.15205615467</v>
+      </c>
+      <c r="R9">
+        <v>1.36850539203</v>
+      </c>
+      <c r="S9">
+        <v>0.001643250591897297</v>
+      </c>
+      <c r="T9">
+        <v>0.002323598223527262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.07699833333333334</v>
+      </c>
+      <c r="H10">
+        <v>0.230995</v>
+      </c>
+      <c r="I10">
+        <v>0.07206290135576336</v>
+      </c>
+      <c r="J10">
+        <v>0.08066597313380819</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.126509</v>
+      </c>
+      <c r="N10">
+        <v>0.3795269999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.001460800127349615</v>
+      </c>
+      <c r="P10">
+        <v>0.001845310285739608</v>
+      </c>
+      <c r="Q10">
+        <v>0.009740982151666666</v>
+      </c>
+      <c r="R10">
+        <v>0.08766883936499999</v>
+      </c>
+      <c r="S10">
+        <v>0.0001052694954776819</v>
+      </c>
+      <c r="T10">
+        <v>0.0001488537499330111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.444374442140331</v>
-      </c>
-      <c r="H5">
-        <v>0.444374442140331</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.382538040121502</v>
-      </c>
-      <c r="N5">
-        <v>0.382538040121502</v>
-      </c>
-      <c r="O5">
-        <v>0.004478763729555372</v>
-      </c>
-      <c r="P5">
-        <v>0.004478763729555372</v>
-      </c>
-      <c r="Q5">
-        <v>0.169990128176448</v>
-      </c>
-      <c r="R5">
-        <v>0.169990128176448</v>
-      </c>
-      <c r="S5">
-        <v>0.004478763729555372</v>
-      </c>
-      <c r="T5">
-        <v>0.004478763729555372</v>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.07699833333333334</v>
+      </c>
+      <c r="H11">
+        <v>0.230995</v>
+      </c>
+      <c r="I11">
+        <v>0.07206290135576336</v>
+      </c>
+      <c r="J11">
+        <v>0.08066597313380819</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.172684</v>
+      </c>
+      <c r="N11">
+        <v>0.518052</v>
+      </c>
+      <c r="O11">
+        <v>0.001993983109432854</v>
+      </c>
+      <c r="P11">
+        <v>0.002518837089714237</v>
+      </c>
+      <c r="Q11">
+        <v>0.01329638019333333</v>
+      </c>
+      <c r="R11">
+        <v>0.11966742174</v>
+      </c>
+      <c r="S11">
+        <v>0.000143692208120118</v>
+      </c>
+      <c r="T11">
+        <v>0.0002031844450073282</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.07699833333333334</v>
+      </c>
+      <c r="H12">
+        <v>0.230995</v>
+      </c>
+      <c r="I12">
+        <v>0.07206290135576336</v>
+      </c>
+      <c r="J12">
+        <v>0.08066597313380819</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>30.192033</v>
+      </c>
+      <c r="N12">
+        <v>90.576099</v>
+      </c>
+      <c r="O12">
+        <v>0.3486275731477111</v>
+      </c>
+      <c r="P12">
+        <v>0.4403929289006289</v>
+      </c>
+      <c r="Q12">
+        <v>2.324736220945</v>
+      </c>
+      <c r="R12">
+        <v>20.922625988505</v>
+      </c>
+      <c r="S12">
+        <v>0.02512311441364268</v>
+      </c>
+      <c r="T12">
+        <v>0.03552472417101724</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.07699833333333334</v>
+      </c>
+      <c r="H13">
+        <v>0.230995</v>
+      </c>
+      <c r="I13">
+        <v>0.07206290135576336</v>
+      </c>
+      <c r="J13">
+        <v>0.08066597313380819</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.385588</v>
+      </c>
+      <c r="N13">
+        <v>0.771176</v>
+      </c>
+      <c r="O13">
+        <v>0.004452386782793978</v>
+      </c>
+      <c r="P13">
+        <v>0.003749559332842005</v>
+      </c>
+      <c r="Q13">
+        <v>0.02968963335333333</v>
+      </c>
+      <c r="R13">
+        <v>0.17813780012</v>
+      </c>
+      <c r="S13">
+        <v>0.000320851909526187</v>
+      </c>
+      <c r="T13">
+        <v>0.0003024618524066529</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.1296733333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.38902</v>
+      </c>
+      <c r="I14">
+        <v>0.1213615441261459</v>
+      </c>
+      <c r="J14">
+        <v>0.1358500264876472</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>53.750927</v>
+      </c>
+      <c r="N14">
+        <v>107.501854</v>
+      </c>
+      <c r="O14">
+        <v>0.6206622533318568</v>
+      </c>
+      <c r="P14">
+        <v>0.522688180082781</v>
+      </c>
+      <c r="Q14">
+        <v>6.970061873846667</v>
+      </c>
+      <c r="R14">
+        <v>41.82037124308</v>
+      </c>
+      <c r="S14">
+        <v>0.07532452944516727</v>
+      </c>
+      <c r="T14">
+        <v>0.07100720310902588</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.1296733333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.38902</v>
+      </c>
+      <c r="I15">
+        <v>0.1213615441261459</v>
+      </c>
+      <c r="J15">
+        <v>0.1358500264876472</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.974798</v>
+      </c>
+      <c r="N15">
+        <v>5.924393999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.02280300350085579</v>
+      </c>
+      <c r="P15">
+        <v>0.02880518430829431</v>
+      </c>
+      <c r="Q15">
+        <v>0.25607863932</v>
+      </c>
+      <c r="R15">
+        <v>2.30470775388</v>
+      </c>
+      <c r="S15">
+        <v>0.002767407715577769</v>
+      </c>
+      <c r="T15">
+        <v>0.003913185051263341</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.1296733333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.38902</v>
+      </c>
+      <c r="I16">
+        <v>0.1213615441261459</v>
+      </c>
+      <c r="J16">
+        <v>0.1358500264876472</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.126509</v>
+      </c>
+      <c r="N16">
+        <v>0.3795269999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.001460800127349615</v>
+      </c>
+      <c r="P16">
+        <v>0.001845310285739608</v>
+      </c>
+      <c r="Q16">
+        <v>0.01640484372666666</v>
+      </c>
+      <c r="R16">
+        <v>0.14764359354</v>
+      </c>
+      <c r="S16">
+        <v>0.0001772849591148198</v>
+      </c>
+      <c r="T16">
+        <v>0.0002506854511956534</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.1296733333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.38902</v>
+      </c>
+      <c r="I17">
+        <v>0.1213615441261459</v>
+      </c>
+      <c r="J17">
+        <v>0.1358500264876472</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.172684</v>
+      </c>
+      <c r="N17">
+        <v>0.518052</v>
+      </c>
+      <c r="O17">
+        <v>0.001993983109432854</v>
+      </c>
+      <c r="P17">
+        <v>0.002518837089714237</v>
+      </c>
+      <c r="Q17">
+        <v>0.02239250989333333</v>
+      </c>
+      <c r="R17">
+        <v>0.20153258904</v>
+      </c>
+      <c r="S17">
+        <v>0.0002419928691222248</v>
+      </c>
+      <c r="T17">
+        <v>0.0003421840853557471</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.1296733333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.38902</v>
+      </c>
+      <c r="I18">
+        <v>0.1213615441261459</v>
+      </c>
+      <c r="J18">
+        <v>0.1358500264876472</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>30.192033</v>
+      </c>
+      <c r="N18">
+        <v>90.576099</v>
+      </c>
+      <c r="O18">
+        <v>0.3486275731477111</v>
+      </c>
+      <c r="P18">
+        <v>0.4403929289006289</v>
+      </c>
+      <c r="Q18">
+        <v>3.91510155922</v>
+      </c>
+      <c r="R18">
+        <v>35.23591403298</v>
+      </c>
+      <c r="S18">
+        <v>0.04230998060215709</v>
+      </c>
+      <c r="T18">
+        <v>0.05982739105612295</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.1296733333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.38902</v>
+      </c>
+      <c r="I19">
+        <v>0.1213615441261459</v>
+      </c>
+      <c r="J19">
+        <v>0.1358500264876472</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.385588</v>
+      </c>
+      <c r="N19">
+        <v>0.771176</v>
+      </c>
+      <c r="O19">
+        <v>0.004452386782793978</v>
+      </c>
+      <c r="P19">
+        <v>0.003749559332842005</v>
+      </c>
+      <c r="Q19">
+        <v>0.05000048125333333</v>
+      </c>
+      <c r="R19">
+        <v>0.30000288752</v>
+      </c>
+      <c r="S19">
+        <v>0.00054034853500672</v>
+      </c>
+      <c r="T19">
+        <v>0.000509377734683591</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.5199516666666667</v>
+      </c>
+      <c r="H20">
+        <v>1.559855</v>
+      </c>
+      <c r="I20">
+        <v>0.486623853305458</v>
+      </c>
+      <c r="J20">
+        <v>0.5447183771191427</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>53.750927</v>
+      </c>
+      <c r="N20">
+        <v>107.501854</v>
+      </c>
+      <c r="O20">
+        <v>0.6206622533318568</v>
+      </c>
+      <c r="P20">
+        <v>0.522688180082781</v>
+      </c>
+      <c r="Q20">
+        <v>27.94788407852834</v>
+      </c>
+      <c r="R20">
+        <v>167.68730447117</v>
+      </c>
+      <c r="S20">
+        <v>0.3020290573175965</v>
+      </c>
+      <c r="T20">
+        <v>0.2847178571940507</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.5199516666666667</v>
+      </c>
+      <c r="H21">
+        <v>1.559855</v>
+      </c>
+      <c r="I21">
+        <v>0.486623853305458</v>
+      </c>
+      <c r="J21">
+        <v>0.5447183771191427</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.974798</v>
+      </c>
+      <c r="N21">
+        <v>5.924393999999999</v>
+      </c>
+      <c r="O21">
+        <v>0.02280300350085579</v>
+      </c>
+      <c r="P21">
+        <v>0.02880518430829431</v>
+      </c>
+      <c r="Q21">
+        <v>1.02679951143</v>
+      </c>
+      <c r="R21">
+        <v>9.24119560287</v>
+      </c>
+      <c r="S21">
+        <v>0.01109648543052429</v>
+      </c>
+      <c r="T21">
+        <v>0.01569071324903187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.5199516666666667</v>
+      </c>
+      <c r="H22">
+        <v>1.559855</v>
+      </c>
+      <c r="I22">
+        <v>0.486623853305458</v>
+      </c>
+      <c r="J22">
+        <v>0.5447183771191427</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.126509</v>
+      </c>
+      <c r="N22">
+        <v>0.3795269999999999</v>
+      </c>
+      <c r="O22">
+        <v>0.001460800127349615</v>
+      </c>
+      <c r="P22">
+        <v>0.001845310285739608</v>
+      </c>
+      <c r="Q22">
+        <v>0.06577856539833332</v>
+      </c>
+      <c r="R22">
+        <v>0.592007088585</v>
+      </c>
+      <c r="S22">
+        <v>0.0007108601868799734</v>
+      </c>
+      <c r="T22">
+        <v>0.001005174424129341</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.5199516666666667</v>
+      </c>
+      <c r="H23">
+        <v>1.559855</v>
+      </c>
+      <c r="I23">
+        <v>0.486623853305458</v>
+      </c>
+      <c r="J23">
+        <v>0.5447183771191427</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.172684</v>
+      </c>
+      <c r="N23">
+        <v>0.518052</v>
+      </c>
+      <c r="O23">
+        <v>0.001993983109432854</v>
+      </c>
+      <c r="P23">
+        <v>0.002518837089714237</v>
+      </c>
+      <c r="Q23">
+        <v>0.08978733360666666</v>
+      </c>
+      <c r="R23">
+        <v>0.8080860024600001</v>
+      </c>
+      <c r="S23">
+        <v>0.000970319744138214</v>
+      </c>
+      <c r="T23">
+        <v>0.001372056851736644</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.5199516666666667</v>
+      </c>
+      <c r="H24">
+        <v>1.559855</v>
+      </c>
+      <c r="I24">
+        <v>0.486623853305458</v>
+      </c>
+      <c r="J24">
+        <v>0.5447183771191427</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>30.192033</v>
+      </c>
+      <c r="N24">
+        <v>90.576099</v>
+      </c>
+      <c r="O24">
+        <v>0.3486275731477111</v>
+      </c>
+      <c r="P24">
+        <v>0.4403929289006289</v>
+      </c>
+      <c r="Q24">
+        <v>15.698397878405</v>
+      </c>
+      <c r="R24">
+        <v>141.285580905645</v>
+      </c>
+      <c r="S24">
+        <v>0.1696504930136696</v>
+      </c>
+      <c r="T24">
+        <v>0.2398901215254966</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.5199516666666667</v>
+      </c>
+      <c r="H25">
+        <v>1.559855</v>
+      </c>
+      <c r="I25">
+        <v>0.486623853305458</v>
+      </c>
+      <c r="J25">
+        <v>0.5447183771191427</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.385588</v>
+      </c>
+      <c r="N25">
+        <v>0.771176</v>
+      </c>
+      <c r="O25">
+        <v>0.004452386782793978</v>
+      </c>
+      <c r="P25">
+        <v>0.003749559332842005</v>
+      </c>
+      <c r="Q25">
+        <v>0.2004871232466667</v>
+      </c>
+      <c r="R25">
+        <v>1.20292273948</v>
+      </c>
+      <c r="S25">
+        <v>0.002166637612649497</v>
+      </c>
+      <c r="T25">
+        <v>0.002042453874697633</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+      <c r="G26">
+        <v>0.176425</v>
+      </c>
+      <c r="H26">
+        <v>0.35285</v>
+      </c>
+      <c r="I26">
+        <v>0.1651165268298952</v>
+      </c>
+      <c r="J26">
+        <v>0.1232190680329194</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>53.750927</v>
+      </c>
+      <c r="N26">
+        <v>107.501854</v>
+      </c>
+      <c r="O26">
+        <v>0.6206622533318568</v>
+      </c>
+      <c r="P26">
+        <v>0.522688180082781</v>
+      </c>
+      <c r="Q26">
+        <v>9.483007295975</v>
+      </c>
+      <c r="R26">
+        <v>37.9320291839</v>
+      </c>
+      <c r="S26">
+        <v>0.1024815956045728</v>
+      </c>
+      <c r="T26">
+        <v>0.06440515042162301</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.5</v>
+      </c>
+      <c r="G27">
+        <v>0.176425</v>
+      </c>
+      <c r="H27">
+        <v>0.35285</v>
+      </c>
+      <c r="I27">
+        <v>0.1651165268298952</v>
+      </c>
+      <c r="J27">
+        <v>0.1232190680329194</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1.974798</v>
+      </c>
+      <c r="N27">
+        <v>5.924393999999999</v>
+      </c>
+      <c r="O27">
+        <v>0.02280300350085579</v>
+      </c>
+      <c r="P27">
+        <v>0.02880518430829431</v>
+      </c>
+      <c r="Q27">
+        <v>0.3484037371499999</v>
+      </c>
+      <c r="R27">
+        <v>2.0904224229</v>
+      </c>
+      <c r="S27">
+        <v>0.00376515273935125</v>
+      </c>
+      <c r="T27">
+        <v>0.003549347964984499</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.5</v>
+      </c>
+      <c r="G28">
+        <v>0.176425</v>
+      </c>
+      <c r="H28">
+        <v>0.35285</v>
+      </c>
+      <c r="I28">
+        <v>0.1651165268298952</v>
+      </c>
+      <c r="J28">
+        <v>0.1232190680329194</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.126509</v>
+      </c>
+      <c r="N28">
+        <v>0.3795269999999999</v>
+      </c>
+      <c r="O28">
+        <v>0.001460800127349615</v>
+      </c>
+      <c r="P28">
+        <v>0.001845310285739608</v>
+      </c>
+      <c r="Q28">
+        <v>0.022319350325</v>
+      </c>
+      <c r="R28">
+        <v>0.13391610195</v>
+      </c>
+      <c r="S28">
+        <v>0.0002412022434206371</v>
+      </c>
+      <c r="T28">
+        <v>0.0002273774136403946</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.5</v>
+      </c>
+      <c r="G29">
+        <v>0.176425</v>
+      </c>
+      <c r="H29">
+        <v>0.35285</v>
+      </c>
+      <c r="I29">
+        <v>0.1651165268298952</v>
+      </c>
+      <c r="J29">
+        <v>0.1232190680329194</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.172684</v>
+      </c>
+      <c r="N29">
+        <v>0.518052</v>
+      </c>
+      <c r="O29">
+        <v>0.001993983109432854</v>
+      </c>
+      <c r="P29">
+        <v>0.002518837089714237</v>
+      </c>
+      <c r="Q29">
+        <v>0.0304657747</v>
+      </c>
+      <c r="R29">
+        <v>0.1827946482</v>
+      </c>
+      <c r="S29">
+        <v>0.0003292395655870278</v>
+      </c>
+      <c r="T29">
+        <v>0.0003103687587213393</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.5</v>
+      </c>
+      <c r="G30">
+        <v>0.176425</v>
+      </c>
+      <c r="H30">
+        <v>0.35285</v>
+      </c>
+      <c r="I30">
+        <v>0.1651165268298952</v>
+      </c>
+      <c r="J30">
+        <v>0.1232190680329194</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>30.192033</v>
+      </c>
+      <c r="N30">
+        <v>90.576099</v>
+      </c>
+      <c r="O30">
+        <v>0.3486275731477111</v>
+      </c>
+      <c r="P30">
+        <v>0.4403929289006289</v>
+      </c>
+      <c r="Q30">
+        <v>5.326629422024999</v>
+      </c>
+      <c r="R30">
+        <v>31.95977653215</v>
+      </c>
+      <c r="S30">
+        <v>0.05756417403528531</v>
+      </c>
+      <c r="T30">
+        <v>0.05426480626742324</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.5</v>
+      </c>
+      <c r="G31">
+        <v>0.176425</v>
+      </c>
+      <c r="H31">
+        <v>0.35285</v>
+      </c>
+      <c r="I31">
+        <v>0.1651165268298952</v>
+      </c>
+      <c r="J31">
+        <v>0.1232190680329194</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.385588</v>
+      </c>
+      <c r="N31">
+        <v>0.771176</v>
+      </c>
+      <c r="O31">
+        <v>0.004452386782793978</v>
+      </c>
+      <c r="P31">
+        <v>0.003749559332842005</v>
+      </c>
+      <c r="Q31">
+        <v>0.0680273629</v>
+      </c>
+      <c r="R31">
+        <v>0.2721094516</v>
+      </c>
+      <c r="S31">
+        <v>0.0007351626416782728</v>
+      </c>
+      <c r="T31">
+        <v>0.0004620172065269269</v>
       </c>
     </row>
   </sheetData>
